--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
+    <sheet name="2015-04" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,19 +162,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unity学习（打包IOS应用、打包安卓应用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算文档跟进（策划与程序确认后修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调优自动发布平台，与程序联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本核心逻辑设计文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局部分表现逻辑文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-照妖镜部分操作逻辑文档分析（D1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-照妖镜部分操作逻辑文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统大招部分逻辑文档分析（D2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统大招部分逻辑文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>旋转平移/碰撞;刚体的基本属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本核心逻辑设计文档分析（D2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局部分表现逻辑文档分析（D3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity学习（推箱子游戏制作，1个关卡）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +324,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +348,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -267,8 +368,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,9 +416,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 25" xfId="19"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -294,6 +432,21 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -303,6 +456,21 @@
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -577,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="187" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -616,135 +784,176 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42088</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -757,4 +966,229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576 F1">
+      <formula1>"完成,未完成,延期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10920" yWindow="740" windowWidth="25940" windowHeight="19160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,117 @@
   </si>
   <si>
     <t>Unity学习（推箱子游戏制作，1个关卡）</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>策划提交延迟，推迟到下周封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+  </si>
+  <si>
+    <t>策划未提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本逻辑文档跟进</t>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局表现文档分析及跟进</t>
+  </si>
+  <si>
+    <t>主流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局表现文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流程-创建角色文档分析及跟进（D1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落文档分析及跟进（D2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接上周任务，D2封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接上周任务</t>
+  </si>
+  <si>
+    <t>主流程-创建角色文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库数值结构确认测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序服务器网络调通测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIT与unity结合使用预研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -348,7 +459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -371,6 +482,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -420,7 +549,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="68">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 25" xfId="19"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -447,6 +576,15 @@
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -471,8 +609,51 @@
     <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -970,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1028,6 +1209,9 @@
       <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
@@ -1040,6 +1224,9 @@
       <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1054,6 +1241,9 @@
       <c r="E5" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
@@ -1065,8 +1255,11 @@
       <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1079,6 +1272,12 @@
       <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
@@ -1090,6 +1289,9 @@
       <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1110,6 +1312,9 @@
       <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
@@ -1121,6 +1326,9 @@
       <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1141,6 +1349,9 @@
       <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
@@ -1158,6 +1369,9 @@
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
@@ -1169,8 +1383,11 @@
       <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1179,12 +1396,155 @@
       </c>
       <c r="E17" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576 F1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>"完成,未完成,延期"</formula1>
     </dataValidation>
   </dataValidations>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25703"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukehzg/手游项目/测试文档/05.工作计划/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\手游1\测试文档\05.工作计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="740" windowWidth="25940" windowHeight="19160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10920" yWindow="735" windowWidth="25935" windowHeight="19155" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,62 @@
   </si>
   <si>
     <t>GIT与unity结合使用预研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统、伤害公式、对局流程测试用例（demo）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统文档分析及跟进（D2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hockeyapp使用研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confluence破解研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>share资料学习（游戏心理学）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,6 +495,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -619,45 +676,14 @@
     <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -928,21 +954,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="2"/>
+    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -965,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A2" s="1">
         <v>42088</v>
       </c>
@@ -973,7 +999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -990,7 +1016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1021,13 +1047,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1058,13 +1084,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1092,7 +1118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1106,7 +1132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1120,7 +1146,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1151,23 +1177,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="2"/>
+    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>42095</v>
       </c>
@@ -1198,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -1213,7 +1239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -1231,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="C5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1245,7 +1271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1279,7 +1305,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1296,13 +1322,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1316,7 +1342,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1333,13 +1359,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1353,13 +1379,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1373,7 +1399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1387,7 +1413,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1401,7 +1427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>42102</v>
       </c>
@@ -1417,11 +1443,14 @@
       <c r="E20" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
@@ -1431,11 +1460,14 @@
       <c r="E21" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
@@ -1445,11 +1477,14 @@
       <c r="E22" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="B24" s="2" t="s">
         <v>68</v>
       </c>
@@ -1462,8 +1497,11 @@
       <c r="E24" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="C25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1473,11 +1511,14 @@
       <c r="E25" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
@@ -1490,8 +1531,11 @@
       <c r="E27" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="C28" s="2" t="s">
         <v>78</v>
       </c>
@@ -1501,11 +1545,14 @@
       <c r="E28" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="F28" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1518,8 +1565,11 @@
       <c r="E30" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="C31" s="2" t="s">
         <v>88</v>
       </c>
@@ -1529,8 +1579,11 @@
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="C32" s="2" t="s">
         <v>89</v>
       </c>
@@ -1539,6 +1592,103 @@
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>42109</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="C43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="C44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1549,6 +1699,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,6 +428,114 @@
   </si>
   <si>
     <t>share资料学习（游戏心理学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角属性、账号基础数据结构测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff规范文档分析（D3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局通用逻辑测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-封妖文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局战斗节奏调整文档分析（D2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局出手速度文档分析（D1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI规范文档分析（D2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本、技能测试用例修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1177,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1613,6 +1721,9 @@
       <c r="E35" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1"/>
@@ -1640,6 +1751,9 @@
       <c r="E39" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="F39" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>97</v>
       </c>
@@ -1654,6 +1768,9 @@
       <c r="E40" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="F40" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="2" t="s">
@@ -1668,6 +1785,9 @@
       <c r="E42" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="F42" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="C43" s="2" t="s">
@@ -1679,6 +1799,9 @@
       <c r="E43" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="F43" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="C44" s="2" t="s">
@@ -1689,6 +1812,152 @@
       </c>
       <c r="E44" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>42116</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="C48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="C49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="C50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="C51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="C52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="C55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="C60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="C61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +536,130 @@
   </si>
   <si>
     <t>副本、技能测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器框架调整需要修改未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局逻辑测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局逻辑测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能通用逻辑测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo对局战斗流程测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能通用逻辑测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能通用逻辑测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能测试log格式确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hockeyapp安卓版试用，crashreport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具逻辑文档分析（D4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI规范细化文档跟进（D2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1833,6 +1957,9 @@
       <c r="E47" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="F47" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="C48" s="2" t="s">
@@ -1844,8 +1971,11 @@
       <c r="E48" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="F48" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="C49" s="2" t="s">
         <v>126</v>
       </c>
@@ -1855,8 +1985,11 @@
       <c r="E49" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="F49" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="C50" s="2" t="s">
         <v>123</v>
       </c>
@@ -1866,8 +1999,11 @@
       <c r="E50" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="F50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="C51" s="2" t="s">
         <v>127</v>
       </c>
@@ -1877,8 +2013,11 @@
       <c r="E51" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="F51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="C52" s="2" t="s">
         <v>107</v>
       </c>
@@ -1888,8 +2027,11 @@
       <c r="E52" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="F52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="B54" s="2" t="s">
         <v>109</v>
       </c>
@@ -1902,8 +2044,11 @@
       <c r="E54" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="F54" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="C55" s="2" t="s">
         <v>128</v>
       </c>
@@ -1913,18 +2058,21 @@
       <c r="E55" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="F55" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="1:7">
       <c r="B58" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="1:7">
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
@@ -1937,8 +2085,11 @@
       <c r="E59" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="F59" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="C60" s="2" t="s">
         <v>130</v>
       </c>
@@ -1948,8 +2099,11 @@
       <c r="E60" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="F60" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="C61" s="2" t="s">
         <v>114</v>
       </c>
@@ -1958,6 +2112,191 @@
       </c>
       <c r="E61" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>42123</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="C65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="C66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="C69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="C70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="C71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="C72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="C73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="C74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="C75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="C78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
     <sheet name="2015-04" sheetId="2" r:id="rId2"/>
+    <sheet name="2015-05" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="188">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +661,108 @@
   </si>
   <si>
     <t>UI规范细化文档跟进（D2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具文档跟进</t>
+  </si>
+  <si>
+    <t>技能逻辑文档修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式文档修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物数据结构文档分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑用例修改，测试</t>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本逻辑测试用例设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局结算测试用例设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖功能测试用例设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jekins与hockeyapp结合使用研究</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包测试-描边对性能影响-安卓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成，其他阻碍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +770,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -730,6 +833,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -748,7 +864,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -819,8 +935,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,10 +956,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="68" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="69">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 25" xfId="19"/>
+    <cellStyle name="常规_2-4周版本输出" xfId="68"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1411,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -2136,8 +2258,11 @@
       <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="F64" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
       <c r="C65" s="2" t="s">
         <v>133</v>
       </c>
@@ -2147,8 +2272,11 @@
       <c r="E65" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="F65" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
       <c r="C66" s="2" t="s">
         <v>139</v>
       </c>
@@ -2158,8 +2286,14 @@
       <c r="E66" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="F66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
@@ -2172,8 +2306,11 @@
       <c r="E68" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="F68" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
       <c r="C69" s="2" t="s">
         <v>137</v>
       </c>
@@ -2183,8 +2320,11 @@
       <c r="E69" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="70" spans="2:5">
+      <c r="F69" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
       <c r="C70" s="2" t="s">
         <v>138</v>
       </c>
@@ -2194,8 +2334,11 @@
       <c r="E70" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="F70" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
       <c r="C71" s="2" t="s">
         <v>140</v>
       </c>
@@ -2205,8 +2348,11 @@
       <c r="E71" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="F71" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
       <c r="C72" s="2" t="s">
         <v>141</v>
       </c>
@@ -2216,8 +2362,11 @@
       <c r="E72" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="F72" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
       <c r="C73" s="2" t="s">
         <v>142</v>
       </c>
@@ -2227,8 +2376,11 @@
       <c r="E73" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="74" spans="2:5">
+      <c r="F73" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
       <c r="C74" s="2" t="s">
         <v>143</v>
       </c>
@@ -2238,8 +2390,14 @@
       <c r="E74" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
+      <c r="F74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
       <c r="C75" s="2" t="s">
         <v>150</v>
       </c>
@@ -2249,8 +2407,11 @@
       <c r="E75" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="77" spans="2:5">
+      <c r="F75" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
       <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
@@ -2263,8 +2424,11 @@
       <c r="E77" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="78" spans="2:5">
+      <c r="F77" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
       <c r="C78" s="2" t="s">
         <v>161</v>
       </c>
@@ -2274,18 +2438,21 @@
       <c r="E78" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="2:5">
+      <c r="F78" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
       <c r="B79" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:7">
       <c r="B80" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:6">
       <c r="B81" s="2" t="s">
         <v>22</v>
       </c>
@@ -2298,6 +2465,221 @@
       <c r="E81" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="F81" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
+      <formula1>"完成,未完成,延期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="2"/>
+    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="C5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="C7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="C8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="C9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="C11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="C13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="C15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="C16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="735" windowWidth="25935" windowHeight="19155" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10920" yWindow="735" windowWidth="25935" windowHeight="19155" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="210">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,11 +758,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>部分完成，其他阻碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式计算表格修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖测试用例设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部分完成，其他阻碍</t>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hockeyapp打包ios的错误解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM系统文档分析（D6）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例改完，未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios打包报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试-流程、换宠、UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
@@ -2290,7 +2378,7 @@
         <v>55</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -2394,7 +2482,7 @@
         <v>55</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="2:7">
@@ -2483,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -2524,7 +2612,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>42095</v>
+        <v>42130</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
@@ -2541,6 +2629,9 @@
       <c r="E3" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="1"/>
@@ -2553,6 +2644,9 @@
       <c r="E4" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5">
       <c r="C5" s="6" t="s">
@@ -2564,6 +2658,9 @@
       <c r="E5" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="2" t="s">
@@ -2581,6 +2678,9 @@
       <c r="E7" s="2">
         <v>0.5</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5">
       <c r="C8" s="6" t="s">
@@ -2592,6 +2692,9 @@
       <c r="E8" s="2">
         <v>0.5</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5">
       <c r="C9" s="6" t="s">
@@ -2603,6 +2706,12 @@
       <c r="E9" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="2" t="s">
@@ -2620,6 +2729,9 @@
       <c r="E11" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="2" t="s">
@@ -2637,6 +2749,9 @@
       <c r="E13" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="2" t="s">
@@ -2652,7 +2767,13 @@
         <v>178</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5">
@@ -2665,21 +2786,165 @@
       <c r="E16" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>42137</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="C20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="C21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="C33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -16,7 +16,7 @@
     <sheet name="2015-04" sheetId="2" r:id="rId2"/>
     <sheet name="2015-05" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="236">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -782,23 +782,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hockeyapp打包ios的错误解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM系统文档分析（D6）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>兔桑、雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>技能逻辑测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例改完，未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios打包报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试-流程、换宠、UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封妖测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对局弱点（照妖镜、技能）逻辑测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局弱点（伤害公式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局逻辑测试（demo配置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo关卡烟雾测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能bug复查&amp; 测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式bug复查&amp;测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI自动化测试方法研究-IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI自动化测试方法研究-android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D</t>
+    <t>demo配置D2提交，AI配置D4提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -806,51 +954,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hockeyapp打包ios的错误解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IM系统文档分析（D6）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能逻辑测试用例修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能逻辑测试用例走读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害公式测试用例修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例改完，未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios打包报错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局测试-流程、换宠、UI</t>
+    <t>app打包环境准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,12 +1039,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1027,7 +1137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1046,6 +1156,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="68" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2571,23 +2690,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.875" style="2"/>
     <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="2"/>
-    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="2"/>
+    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2598,358 +2718,569 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
+      <c r="A2" s="8">
         <v>42130</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="1"/>
-      <c r="C3" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="1"/>
       <c r="C4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
+      <c r="A5" s="1"/>
+      <c r="C5" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5">
-      <c r="C5" s="6" t="s">
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
+      <c r="C6" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:8">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5">
+      <c r="C8" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>0.5</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="C8" s="6" t="s">
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5">
+      <c r="C9" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>0.5</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5">
-      <c r="C9" s="6" t="s">
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5">
+      <c r="C10" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="C12" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5">
+      <c r="C14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
+      <c r="C16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="C11" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5">
-      <c r="C13" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="C17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="9" customFormat="1">
+      <c r="A20" s="8">
+        <v>42137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="C35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5">
-      <c r="C15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="38" spans="1:8">
+      <c r="C38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="9" customFormat="1">
+      <c r="A41" s="8">
+        <v>42144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5">
-      <c r="C16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>42137</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="43" spans="1:8">
+      <c r="C43" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="C25" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="C26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="C30" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="C33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="C36" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1"/>
+      <c r="D43" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="C44" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="C45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="C48" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="C51" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="C52" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="C56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G4:G45 G47:G1048576">
       <formula1>"完成,未完成,延期"</formula1>
     </dataValidation>
   </dataValidations>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="735" windowWidth="25935" windowHeight="19155" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="10920" yWindow="735" windowWidth="25935" windowHeight="19155" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
     <sheet name="2015-04" sheetId="2" r:id="rId2"/>
     <sheet name="2015-05" sheetId="3" r:id="rId3"/>
+    <sheet name="2015-06" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="295">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -956,6 +957,242 @@
   <si>
     <t>app打包环境准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招操作文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug复查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗-伤害公式计算文当跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗流程（进程、战斗）文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统文档分析跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物基础架构文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角属性，账号基础数据文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局阻碍内容测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局技能动画表现文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖文档分析跟进</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统文档分析跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心战斗流程测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑测试用例修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招测试用例修改补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码框架修改后整体流程测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角属性，账号基础数据测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局文档分析跟进（UI、换宠、照妖镜、动画表现）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-AI文档分析跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试用例修改（UI、换宠、照妖镜、动画表现）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统文档分析（D4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-大招文档分析跟进（D2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源目录整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac上excel转码脚本实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试用例修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖测试用例修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物基础架构测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1137,7 +1374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1163,6 +1400,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="68" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1237,7 +1483,98 @@
     <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2690,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -3128,6 +3465,9 @@
       <c r="F43" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="C44" s="2" t="s">
@@ -3142,6 +3482,9 @@
       <c r="F44" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="C45" s="2" t="s">
@@ -3156,6 +3499,9 @@
       <c r="F45" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="G45" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="C47" s="2" t="s">
@@ -3170,7 +3516,10 @@
       <c r="F47" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3187,13 +3536,16 @@
       <c r="F48" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G48" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="B50" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8">
       <c r="C51" s="2" t="s">
         <v>218</v>
       </c>
@@ -3206,8 +3558,11 @@
       <c r="F51" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="C52" s="2" t="s">
         <v>224</v>
       </c>
@@ -3220,8 +3575,11 @@
       <c r="F52" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="C53" s="2" t="s">
         <v>225</v>
@@ -3235,13 +3593,16 @@
       <c r="F53" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G53" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="B55" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:8">
       <c r="C56" s="2" t="s">
         <v>227</v>
       </c>
@@ -3251,8 +3612,11 @@
       <c r="F56" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="C57" s="2" t="s">
         <v>228</v>
       </c>
@@ -3262,8 +3626,11 @@
       <c r="F57" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="C58" s="2" t="s">
         <v>235</v>
       </c>
@@ -3273,9 +3640,225 @@
       <c r="F58" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1"/>
+      <c r="G58" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="9" customFormat="1">
+      <c r="A61" s="8">
+        <v>42151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="C63" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="C64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="C65" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="C66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="C67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="C70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="C71" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="C74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="C77" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="C80" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3287,4 +3870,393 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="2"/>
+    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
+      <c r="A2" s="8">
+        <v>42130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5">
+      <c r="A4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
+      <c r="C5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
+      <c r="C6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5">
+      <c r="C8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5">
+      <c r="C9" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5">
+      <c r="C10" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5">
+      <c r="A11" s="1"/>
+      <c r="C11" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="A12" s="1"/>
+      <c r="C12" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5">
+      <c r="C13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5">
+      <c r="C15" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
+      <c r="A16" s="1"/>
+      <c r="C16" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" s="1"/>
+      <c r="C17" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="C19" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="C21" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5">
+      <c r="B22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5">
+      <c r="C23" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="C25" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5">
+      <c r="C26" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5">
+      <c r="C27" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E23">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G4:G6 G7:G1048576">
+      <formula1>"完成,未完成,延期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\手游1\测试文档\05.工作计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\测试文档\05.工作计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2015-05" sheetId="3" r:id="rId3"/>
     <sheet name="2015-06" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="323">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1063,28 +1063,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抓宠、封妖文档分析跟进</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具系统文档分析跟进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核心战斗流程测试用例修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能逻辑测试用例修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招测试用例修改补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码框架修改后整体流程测试</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>雷神、兔桑</t>
@@ -1095,14 +1075,98 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-AI文档分析跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统文档分析（D4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac上excel转码脚本实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局文档分析跟进（UI、换宠、照妖镜、动画表现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试用例修改（UI、换宠、照妖镜、动画表现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能-大招文档分析跟进（D2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招测试用例修改补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物基础架构测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓宠、封妖文档分析跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角属性，账号基础数据测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统文档分析跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码框架修改后整体流程测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源目录整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员安排</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角属性，账号基础数据测试</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1119,14 +1183,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对局AI测试用例设计</t>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局测试用例走读（UI、AI、换宠、照妖镜、动画）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能、大招测试用例走读</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局AI逻辑测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜功能测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能逻辑测试（switch）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1135,71 +1250,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局文档分析跟进（UI、换宠、照妖镜、动画表现）</t>
+    <t>三方前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debug完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-UI测试</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>技能-AI文档分析跟进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局测试用例修改（UI、换宠、照妖镜、动画表现）</t>
+    <t>换宠功能测试-D4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统文档分析（D4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能-大招文档分析跟进（D2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源目录整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mac上excel转码脚本实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害公式测试用例修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害公式测试</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓宠、封妖测试用例修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物基础架构测试</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>尽量debug完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算文档分析-D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3下午三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4下午三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本逻辑、副本照妖镜、对局掉落表现文档分析及跟进-D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1274,6 +1385,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1374,7 +1493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,6 +1528,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="68" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1483,7 +1606,77 @@
     <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3874,40 +4067,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="10.875" style="2"/>
-    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="12" customWidth="1"/>
     <col min="6" max="7" width="10.875" style="2"/>
     <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -3919,7 +4113,7 @@
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
       <c r="A2" s="8">
-        <v>42130</v>
+        <v>42158</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3927,332 +4121,638 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="C5" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5">
-      <c r="C6" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="D6" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>290</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>280</v>
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5">
-      <c r="C8" s="7" t="s">
-        <v>265</v>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>291</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="C9" s="6" t="s">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>292</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="C10" s="6" t="s">
-        <v>292</v>
+        <v>143</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>293</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="C11" s="6" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="C12" s="6" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5">
-      <c r="C13" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="D13" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>290</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="C15" s="6" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>290</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="C16" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>270</v>
+        <v>295</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="C17" s="6" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5">
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" s="6" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>270</v>
+        <v>295</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5">
+    </row>
+    <row r="21" spans="1:8">
       <c r="C21" s="6" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5">
-      <c r="B22" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5">
-      <c r="C23" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="D23" s="13" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5">
+    </row>
+    <row r="25" spans="1:8">
       <c r="C25" s="6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>290</v>
+        <v>265</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="C26" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>270</v>
+        <v>292</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5">
+        <v>266</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="C27" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>271</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="15">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="10" customFormat="1" ht="18.75">
+      <c r="A30" s="8">
+        <v>42165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="C33" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="C34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="C35" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="C36" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="C37" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="C38" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="C39" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="C40" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="C43" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="C44" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="C47" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13">
+  <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E1048576">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1 E3:E29">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="C37">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C38">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="C39">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G4:G6 G7:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G29 G31:G36 G37:G39 G40:G1048576">
       <formula1>"完成,未完成,延期"</formula1>
     </dataValidation>
   </dataValidations>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="346">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1303,6 +1303,97 @@
   </si>
   <si>
     <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择文档跟进</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2对局内容文档分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端大小测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔桑、雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、兔桑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day6</t>
+  </si>
+  <si>
+    <t>Day5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-换宠功能测试（特效D1、逻辑差死和手动换D2）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局－UI Debug（D3）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局—照妖镜、弱点Debug（D3）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局、技能动画表现功能测试（开战、胜利失败）（策划D4，程序D2）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局、核心战斗流程（进程对局结束，进程切换）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,7 +1401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1394,6 +1485,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1418,7 +1520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1492,8 +1594,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1534,9 +1639,13 @@
     <xf numFmtId="58" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="69" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="70">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10 2 2 2" xfId="69"/>
     <cellStyle name="常规 25" xfId="19"/>
     <cellStyle name="常规_2-4周版本输出" xfId="68"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1606,7 +1715,27 @@
     <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4067,11 +4196,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -4483,6 +4612,9 @@
       <c r="F32" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H32" s="2" t="s">
         <v>320</v>
       </c>
@@ -4500,6 +4632,9 @@
       <c r="F33" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" s="2" t="s">
         <v>309</v>
       </c>
@@ -4517,6 +4652,9 @@
       <c r="F34" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H34" s="2" t="s">
         <v>309</v>
       </c>
@@ -4534,6 +4672,9 @@
       <c r="F35" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="2:8">
       <c r="C36" s="6" t="s">
@@ -4548,6 +4689,9 @@
       <c r="F36" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G36" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="2:8">
       <c r="C37" s="6" t="s">
@@ -4562,6 +4706,9 @@
       <c r="F37" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G37" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H37" s="2" t="s">
         <v>310</v>
       </c>
@@ -4579,6 +4726,9 @@
       <c r="F38" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G38" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H38" s="2" t="s">
         <v>316</v>
       </c>
@@ -4596,6 +4746,9 @@
       <c r="F39" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G39" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H39" s="2" t="s">
         <v>316</v>
       </c>
@@ -4613,6 +4766,9 @@
       <c r="F40" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G40" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="2" t="s">
@@ -4632,6 +4788,9 @@
       <c r="F43" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="2:8">
       <c r="C44" s="6" t="s">
@@ -4646,6 +4805,9 @@
       <c r="F44" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="2" t="s">
@@ -4665,94 +4827,235 @@
       <c r="F47" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G47" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H47" s="2" t="s">
         <v>319</v>
       </c>
     </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="18.75">
+      <c r="A49" s="8">
+        <v>42172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.25">
+      <c r="B50" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.25">
+      <c r="C51" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="C52" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="C53" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="C54" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="C56" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="C60" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E1048576">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+  <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E48 E50:E57 E59:E1048576">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 E3:E29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
     <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
+  <conditionalFormatting sqref="C43">
     <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C60">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="D51:D57">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G29 G31:G36 G37:G39 G40:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G29 G50:G1048576 G31:G48">
       <formula1>"完成,未完成,延期"</formula1>
     </dataValidation>
   </dataValidations>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="361">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1395,13 +1395,73 @@
   <si>
     <t>0.5D</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局流程-切进程功能测试，复查bug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招功能测试（物理大招、法术大招），复查bug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2版本对局烟雾测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2版本对局用例修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统测试用例设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts、雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1493,6 +1553,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1598,7 +1663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1642,6 +1707,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="69" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1715,7 +1781,27 @@
     <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4196,11 +4282,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -4962,100 +5048,197 @@
         <v>345</v>
       </c>
     </row>
+    <row r="62" spans="1:6" s="10" customFormat="1" ht="18.75">
+      <c r="A62" s="8">
+        <v>42179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="C64" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="C65" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="C66" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="C67" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="C69" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E48 E50:E57 E59:E1048576">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+  <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E48 E50:E57 E59:E61 C64:C67 E63:E67 E70:E1048576">
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 E3:E29">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C60">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D57">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64:D69">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G29 G50:G1048576 G31:G48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G29 G31:G48 G50:G61 G63:G1048576">
       <formula1>"完成,未完成,延期"</formula1>
     </dataValidation>
   </dataValidations>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="735" windowWidth="25935" windowHeight="19155" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="10920" yWindow="735" windowWidth="25935" windowHeight="19155" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
     <sheet name="2015-04" sheetId="2" r:id="rId2"/>
     <sheet name="2015-05" sheetId="3" r:id="rId3"/>
     <sheet name="2015-06" sheetId="4" r:id="rId4"/>
+    <sheet name="2015-07" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="355">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,13 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑、雷神</t>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.5D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,13 +110,6 @@
   </si>
   <si>
     <t>持续集成方法学习研究（IOS）</t>
-  </si>
-  <si>
-    <t>兔桑</t>
-  </si>
-  <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雷神</t>
@@ -176,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结算文档跟进（策划与程序确认后修改）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +254,6 @@
     <t>副本逻辑文档跟进</t>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对局表现文档分析及跟进</t>
   </si>
   <si>
@@ -314,14 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D3封文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务系统文档分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,14 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.25D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.25D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,10 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,19 +572,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hockeyapp安卓版试用，crashreport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.5D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神、兔桑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -684,27 +607,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能逻辑用例修改，测试</t>
-  </si>
-  <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>副本逻辑测试用例设计</t>
@@ -727,10 +634,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,10 +678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雷神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,10 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能逻辑测试用例修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,10 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计划完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,18 +890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核心战斗-伤害公式计算文当跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,14 +944,6 @@
   <si>
     <t>核心战斗流程测试用例修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D6</t>
@@ -1159,10 +1030,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>计划完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1210,10 +1077,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能、大招测试用例走读</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1266,10 +1129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对局-UI测试</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1330,18 +1189,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>兔桑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔桑、雷神</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神、兔桑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>day6</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1455,6 +1302,131 @@
   <si>
     <t>ts、雷神</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统回归测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害公式回归测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具系统测试用例修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统测试用例设计&amp;修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统测试用例走读</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端log输出功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔灵召唤体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、ts</t>
+  </si>
+  <si>
+    <t>雷神、ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HockeyApp打包协助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局相关文档分析（弱点、相机、动画、朝向、轴、attach）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择文档分析（新增宠物布阵）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体测试问题跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts、雷神</t>
+  </si>
+  <si>
+    <t>ts、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>D2提交D5封文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3出解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts，雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1781,7 +1753,227 @@
     <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2302,171 +2494,171 @@
         <v>42088</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2527,210 +2719,210 @@
         <v>42095</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2738,169 +2930,169 @@
         <v>42102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2908,19 +3100,19 @@
         <v>42109</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2928,91 +3120,91 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>91</v>
+        <v>341</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="C43" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="C44" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3020,178 +3212,178 @@
         <v>42116</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="C48" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="C50" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="C52" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="C55" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>111</v>
+        <v>341</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="B58" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>121</v>
+        <v>333</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="C60" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="C61" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3199,226 +3391,226 @@
         <v>42123</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="C65" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="C66" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:7">
       <c r="C69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="C70" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="C71" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="C72" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="2:7">
       <c r="C73" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="C74" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="C75" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>145</v>
+        <v>339</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="2:7">
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>159</v>
+        <v>333</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -3485,189 +3677,189 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="C6" s="6" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="C8" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="3" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5">
       <c r="C9" s="6" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="3" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="F9" s="2">
         <v>0.5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="C10" s="6" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="C12" s="6" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="3" t="s">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
       <c r="C14" s="6" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="3" t="s">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
       <c r="C16" s="6" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5">
       <c r="C17" s="6" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1">
@@ -3677,176 +3869,176 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="C26" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="C27" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="C28" s="2" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="C29" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="C30" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="C31" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="C32" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="C35" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="C38" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="9" customFormat="1">
@@ -3857,199 +4049,199 @@
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="C43" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="C44" s="2" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="C45" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="C47" s="2" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="C48" s="2" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" s="2" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="C51" s="2" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="C52" s="2" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="2" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="C56" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="C57" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="C58" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="9" customFormat="1">
@@ -4059,213 +4251,213 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62" s="2" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="C63" s="2" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="C64" s="2" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="C65" s="2" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="C66" s="2" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="C67" s="2" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" s="2" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="C70" s="2" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="C71" s="2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="C74" s="2" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="B76" s="2" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="C77" s="2" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" s="2" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="C80" s="2" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>248</v>
+        <v>341</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4284,9 +4476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -4311,10 +4503,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -4333,343 +4525,343 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="C5" s="6" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" s="6" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="6" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" s="6" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="C11" s="6" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="C12" s="6" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="6" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" s="6" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="C16" s="6" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="C17" s="6" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="C19" s="6" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="C21" s="6" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="2" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="6" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="C25" s="6" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="C26" s="6" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="6" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H27" s="15">
         <v>42172</v>
@@ -4682,558 +4874,573 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="C32" s="6" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="C33" s="6" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="C34" s="6" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="C35" s="6" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="C36" s="6" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="C37" s="6" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="C38" s="6" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="C39" s="6" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="C40" s="14" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="2" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="6" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="C44" s="6" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="2" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="C47" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="10" customFormat="1" ht="18.75">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="10" customFormat="1" ht="18.75">
       <c r="A49" s="8">
         <v>42172</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="17.25">
+    <row r="50" spans="1:7" ht="17.25">
       <c r="B50" s="2" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:6" ht="17.25">
+    <row r="51" spans="1:7" ht="17.25">
       <c r="C51" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="C52" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="C53" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="C54" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="C56" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="C52" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="F56" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="C57" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="C53" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="C54" s="6" t="s">
+      <c r="F57" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="C60" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="C55" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="C56" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="C57" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="B59" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="C60" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="10" customFormat="1" ht="18.75">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="10" customFormat="1" ht="18.75">
       <c r="A62" s="8">
         <v>42179</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7">
       <c r="B63" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="C64" s="6" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
+        <v>318</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
       <c r="C65" s="14" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
+        <v>317</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
       <c r="C66" s="6" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
+        <v>318</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
       <c r="C67" s="6" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
+        <v>319</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
       <c r="B68" s="2" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="13"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:7">
       <c r="C69" s="6" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>357</v>
+        <v>318</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E48 E50:E57 E59:E61 C64:C67 E63:E67 E70:E1048576">
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 E3:E29">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="15" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C60">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D57">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D69">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5245,4 +5452,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="12" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="2"/>
+    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
+      <c r="A2" s="8">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="C4" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="17.25">
+      <c r="C20" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E21:E1048576 E3:E19">
+    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C10">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G1048576">
+      <formula1>"完成,未完成,延期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]附录!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D5 D10 D17:D20 D7:D8 D12 D14:D15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -18,7 +18,8 @@
     <sheet name="2015-06" sheetId="4" r:id="rId4"/>
     <sheet name="2015-07" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="389">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,6 +1427,142 @@
   </si>
   <si>
     <t>ts，雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局文档跟进（切进程状态变化逻辑、副本对局关系调整、对局掉落表现、弱点相关）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2对局修改内容文档分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局新需求测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局新需求测试用例设计&amp;修改（切进程、对局关系、掉落表现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择测试用例设计&amp;修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本选择测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系统回归测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔灵召唤体验报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hockyApp协助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts、雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点阻碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3下午三方、D4封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3上午三方、D4封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4上午三方、D5封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始，可不完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面测试用例设计（宠物列表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1753,17 +1890,7 @@
     <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4478,7 +4605,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -5345,102 +5472,102 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E48 E50:E57 E59:E61 C64:C67 E63:E67 E70:E1048576">
-    <cfRule type="cellIs" dxfId="41" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 E3:E29">
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C60">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D57">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D69">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5456,11 +5583,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -5474,7 +5601,7 @@
     <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="19.5">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -5500,17 +5627,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A2" s="8">
         <v>42186</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="C4" s="17" t="s">
         <v>336</v>
@@ -5521,11 +5648,20 @@
       <c r="E4" s="12" t="s">
         <v>333</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="C5" s="17" t="s">
         <v>337</v>
       </c>
@@ -5535,16 +5671,22 @@
       <c r="E5" s="12" t="s">
         <v>333</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="C7" s="17" t="s">
         <v>322</v>
       </c>
@@ -5554,8 +5696,14 @@
       <c r="E7" s="12" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="C8" s="17" t="s">
         <v>323</v>
       </c>
@@ -5565,14 +5713,20 @@
       <c r="E8" s="12" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="C10" s="17" t="s">
         <v>332</v>
       </c>
@@ -5582,16 +5736,22 @@
       <c r="E10" s="12" t="s">
         <v>334</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="B11" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="C12" s="17" t="s">
         <v>324</v>
       </c>
@@ -5601,13 +5761,19 @@
       <c r="E12" s="12" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="C14" s="17" t="s">
         <v>325</v>
       </c>
@@ -5617,8 +5783,14 @@
       <c r="E14" s="12" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="C15" s="17" t="s">
         <v>326</v>
       </c>
@@ -5628,13 +5800,19 @@
       <c r="E15" s="12" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
+    <row r="17" spans="1:8">
       <c r="C17" s="6" t="s">
         <v>328</v>
       </c>
@@ -5644,8 +5822,14 @@
       <c r="E17" s="12" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="18" spans="3:8">
+      <c r="F17" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="C18" s="6" t="s">
         <v>329</v>
       </c>
@@ -5655,8 +5839,14 @@
       <c r="E18" s="12" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="19" spans="3:8">
+      <c r="F18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" s="6" t="s">
         <v>335</v>
       </c>
@@ -5666,8 +5856,14 @@
       <c r="E19" s="12" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" ht="17.25">
+      <c r="F19" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25">
       <c r="C20" s="6" t="s">
         <v>338</v>
       </c>
@@ -5677,135 +5873,337 @@
       <c r="E20" s="12" t="s">
         <v>340</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>353</v>
       </c>
     </row>
+    <row r="22" spans="1:8" s="10" customFormat="1" ht="18.75">
+      <c r="A22" s="8">
+        <v>42193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="C33" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="C35" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="C37" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="C38" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E21:E1048576 E3:E19">
-    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
+  <conditionalFormatting sqref="E21 E3:E19 E23:E1048576">
+    <cfRule type="cellIs" dxfId="20" priority="40" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G4:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5 G7:G8 G10 G12 G14:G15 G17:G20">
       <formula1>"完成,未完成,延期"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]附录!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D5 D10 D17:D20 D7:D8 D12 D14:D15</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\测试文档\05.工作计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="735" windowWidth="25935" windowHeight="19155" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,7 @@
     <sheet name="2015-06" sheetId="4" r:id="rId4"/>
     <sheet name="2015-07" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="424">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1542,10 +1536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始，可不完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.5D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1563,6 +1553,165 @@
   </si>
   <si>
     <t>宠物界面测试用例设计（宠物列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-朝向，轴锁定，attach</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chao'xiang</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-动画范围（需求策划配置）</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan'wei</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本入口测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2对局修改文档跟进</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2对局修改测试用例修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2对局修改测试用例走读</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度算法调整文档分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能文档分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2大招技能修改文档分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、ts</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面测试用例设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面测试用例走读</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3三方D4封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差列表中装备相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2提交D3三方D4封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能有阻碍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1570,7 +1719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1670,6 +1819,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1694,7 +1849,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1771,8 +1926,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1817,9 +1976,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="69" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="68" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="70">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="74">
     <cellStyle name="常规 10 2 2 2" xfId="69"/>
     <cellStyle name="常规 25" xfId="19"/>
     <cellStyle name="常规_2-4周版本输出" xfId="68"/>
@@ -1856,41 +2020,248 @@
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2357,7 +2728,7 @@
     </a:clrScheme>
     <a:fontScheme name="办公室">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2392,7 +2763,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2569,7 +2940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2579,21 +2950,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="2"/>
-    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="2"/>
-    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="18.75">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="16">
       <c r="A2" s="1">
         <v>42088</v>
       </c>
@@ -2797,6 +3168,11 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2804,21 +3180,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="2"/>
-    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.875" style="2"/>
-    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -3748,7 +4124,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3756,22 +4137,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="2"/>
-    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="2"/>
-    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="21.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -3797,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="16">
       <c r="A2" s="8">
         <v>42130</v>
       </c>
@@ -3807,7 +4188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="1"/>
       <c r="C4" s="6" t="s">
         <v>149</v>
@@ -3823,7 +4204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="1"/>
       <c r="C5" s="6" t="s">
         <v>150</v>
@@ -3839,7 +4220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16">
       <c r="C6" s="6" t="s">
         <v>151</v>
       </c>
@@ -3860,7 +4241,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="16">
       <c r="C8" s="7" t="s">
         <v>143</v>
       </c>
@@ -3875,7 +4256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="16">
       <c r="C9" s="6" t="s">
         <v>144</v>
       </c>
@@ -3890,7 +4271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="16">
       <c r="C10" s="6" t="s">
         <v>148</v>
       </c>
@@ -3914,7 +4295,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16">
       <c r="C12" s="6" t="s">
         <v>145</v>
       </c>
@@ -3935,7 +4316,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16">
       <c r="C14" s="6" t="s">
         <v>142</v>
       </c>
@@ -3956,7 +4337,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16">
       <c r="C16" s="6" t="s">
         <v>152</v>
       </c>
@@ -3974,7 +4355,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7" ht="16">
       <c r="C17" s="6" t="s">
         <v>153</v>
       </c>
@@ -4595,7 +4976,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4603,23 +4989,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="2"/>
-    <col min="3" max="3" width="44.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="12" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="2"/>
-    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="44.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="12" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="21.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5">
+    <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4645,7 +5031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
+    <row r="2" spans="1:8" s="10" customFormat="1">
       <c r="A2" s="8">
         <v>42158</v>
       </c>
@@ -4994,7 +5380,7 @@
         <v>42172</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="10" customFormat="1" ht="18.75">
+    <row r="30" spans="1:8" s="10" customFormat="1">
       <c r="A30" s="8">
         <v>42165</v>
       </c>
@@ -5239,18 +5625,18 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="10" customFormat="1" ht="18.75">
+    <row r="49" spans="1:7" s="10" customFormat="1">
       <c r="A49" s="8">
         <v>42172</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.25">
+    <row r="50" spans="1:7">
       <c r="B50" s="2" t="s">
         <v>290</v>
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:7" ht="17.25">
+    <row r="51" spans="1:7">
       <c r="C51" s="7" t="s">
         <v>300</v>
       </c>
@@ -5367,7 +5753,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="10" customFormat="1" ht="18.75">
+    <row r="62" spans="1:7" s="10" customFormat="1">
       <c r="A62" s="8">
         <v>42179</v>
       </c>
@@ -5472,102 +5858,102 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E48 E50:E57 E59:E61 C64:C67 E63:E67 E70:E1048576">
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 E3:E29">
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C60">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D57">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D69">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5577,31 +5963,36 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="2"/>
-    <col min="3" max="3" width="44.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="12" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="2"/>
-    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.875" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="44.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="12" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="21.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="19.5">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -5627,7 +6018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="18.75">
+    <row r="2" spans="1:9" s="10" customFormat="1">
       <c r="A2" s="8">
         <v>42186</v>
       </c>
@@ -5863,7 +6254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25">
+    <row r="20" spans="1:8">
       <c r="C20" s="6" t="s">
         <v>338</v>
       </c>
@@ -5877,13 +6268,13 @@
         <v>376</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="10" customFormat="1" ht="18.75">
+    <row r="22" spans="1:8" s="10" customFormat="1">
       <c r="A22" s="8">
         <v>42193</v>
       </c>
@@ -5898,13 +6289,16 @@
         <v>356</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>372</v>
       </c>
+      <c r="F24" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>375</v>
+        <v>47</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>380</v>
@@ -5915,13 +6309,16 @@
         <v>357</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>373</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>375</v>
+        <v>47</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>379</v>
@@ -5932,13 +6329,16 @@
         <v>360</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>372</v>
       </c>
+      <c r="F26" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="G26" s="2" t="s">
-        <v>376</v>
+        <v>47</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>381</v>
@@ -5949,13 +6349,16 @@
         <v>362</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>370</v>
       </c>
+      <c r="F27" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="G27" s="2" t="s">
-        <v>377</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5963,13 +6366,16 @@
         <v>361</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>371</v>
+        <v>417</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>376</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -5977,13 +6383,16 @@
         <v>363</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>371</v>
       </c>
+      <c r="F29" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="G29" s="2" t="s">
-        <v>384</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -5991,13 +6400,16 @@
         <v>364</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>370</v>
       </c>
+      <c r="F30" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>375</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6010,192 +6422,509 @@
         <v>359</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>372</v>
       </c>
+      <c r="F32" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="G32" s="2" t="s">
-        <v>375</v>
+        <v>47</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="1:8">
       <c r="C33" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>370</v>
       </c>
+      <c r="F33" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="G33" s="2" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="B34" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="1:8">
       <c r="C35" s="6" t="s">
         <v>366</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>371</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="G35" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>419</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="1:8">
       <c r="C37" s="6" t="s">
         <v>368</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>370</v>
       </c>
+      <c r="F37" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="G37" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="C38" s="6" t="s">
         <v>369</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>370</v>
       </c>
+      <c r="F38" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="G38" s="2" t="s">
-        <v>376</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1">
+      <c r="A40" s="8">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="C42" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="C43" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="C44" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="C45" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="C46" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="C48" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="C51" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="C52" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="C55" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="C56" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E21 E3:E19 E23:E1048576">
-    <cfRule type="cellIs" dxfId="20" priority="40" operator="equal">
+  <conditionalFormatting sqref="E21 E3:E19 E23:E39 E41 E49:E50 E53:E54 E57:E1048576">
+    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C44">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C44">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="C55">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"未完成"</formula>
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="E55">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="C56">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="C56">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"未完成"</formula>
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6204,6 +6933,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\测试文档\05.工作计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19575" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2015-03" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="448">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1714,12 +1719,108 @@
     <t>可能有阻碍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本入口bug复查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局功能bug复查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面测试用例走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面测试用例修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务系统bug复查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2对局修改功能测试（速度计算、升格动画加入动画配置、多个怪物同时死亡、暴击数字动画）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局新需求功能测试（副本切对局、弱点相关、战后回血）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1984,6 +2085,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="74">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 2 2 2" xfId="69"/>
     <cellStyle name="常规 25" xfId="19"/>
     <cellStyle name="常规_2-4周版本输出" xfId="68"/>
@@ -2022,42 +2124,41 @@
     <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="63">
     <dxf>
@@ -2940,7 +3041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2954,17 +3055,17 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="2"/>
+    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2987,7 +3088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="16">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A2" s="1">
         <v>42088</v>
       </c>
@@ -3184,17 +3285,17 @@
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="2"/>
+    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4141,18 +4242,18 @@
       <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="21.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="2"/>
+    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -4178,7 +4279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="16">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
       <c r="A2" s="8">
         <v>42130</v>
       </c>
@@ -4188,7 +4289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="1"/>
       <c r="C4" s="6" t="s">
         <v>149</v>
@@ -4204,7 +4305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="1"/>
       <c r="C5" s="6" t="s">
         <v>150</v>
@@ -4220,7 +4321,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="C6" s="6" t="s">
         <v>151</v>
       </c>
@@ -4241,7 +4342,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="16">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="C8" s="7" t="s">
         <v>143</v>
       </c>
@@ -4256,7 +4357,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="C9" s="6" t="s">
         <v>144</v>
       </c>
@@ -4271,7 +4372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="C10" s="6" t="s">
         <v>148</v>
       </c>
@@ -4295,7 +4396,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="C12" s="6" t="s">
         <v>145</v>
       </c>
@@ -4316,7 +4417,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="C14" s="6" t="s">
         <v>142</v>
       </c>
@@ -4337,7 +4438,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="16">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="C16" s="6" t="s">
         <v>152</v>
       </c>
@@ -4355,7 +4456,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="C17" s="6" t="s">
         <v>153</v>
       </c>
@@ -4994,18 +5095,18 @@
       <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="44.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="12" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="21.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="44.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="12" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="2"/>
+    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.5">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -5031,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.75">
       <c r="A2" s="8">
         <v>42158</v>
       </c>
@@ -5380,7 +5481,7 @@
         <v>42172</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="10" customFormat="1">
+    <row r="30" spans="1:8" s="10" customFormat="1" ht="18.75">
       <c r="A30" s="8">
         <v>42165</v>
       </c>
@@ -5625,18 +5726,18 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="10" customFormat="1">
+    <row r="49" spans="1:7" s="10" customFormat="1" ht="18.75">
       <c r="A49" s="8">
         <v>42172</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="17.25">
       <c r="B50" s="2" t="s">
         <v>290</v>
       </c>
       <c r="C50" s="16"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="17.25">
       <c r="C51" s="7" t="s">
         <v>300</v>
       </c>
@@ -5753,7 +5854,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="10" customFormat="1">
+    <row r="62" spans="1:7" s="10" customFormat="1" ht="18.75">
       <c r="A62" s="8">
         <v>42179</v>
       </c>
@@ -5974,25 +6075,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="44.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="12" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="21.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="52.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="12" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="2"/>
+    <col min="8" max="8" width="21.625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="19.5">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -6018,7 +6119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="18.75">
       <c r="A2" s="8">
         <v>42186</v>
       </c>
@@ -6254,7 +6355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="17.25">
       <c r="C20" s="6" t="s">
         <v>338</v>
       </c>
@@ -6274,7 +6375,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="10" customFormat="1">
+    <row r="22" spans="1:8" s="10" customFormat="1" ht="18.75">
       <c r="A22" s="8">
         <v>42193</v>
       </c>
@@ -6521,7 +6622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="10" customFormat="1">
+    <row r="40" spans="1:8" s="10" customFormat="1" ht="18.75">
       <c r="A40" s="8">
         <v>42200</v>
       </c>
@@ -6544,6 +6645,9 @@
       <c r="F42" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="G42" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="C43" s="20" t="s">
@@ -6558,6 +6662,9 @@
       <c r="F43" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="G43" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H43" s="2" t="s">
         <v>423</v>
       </c>
@@ -6575,6 +6682,9 @@
       <c r="F44" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="C45" s="20" t="s">
@@ -6589,6 +6699,9 @@
       <c r="F45" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="G45" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H45" s="2" t="s">
         <v>416</v>
       </c>
@@ -6606,6 +6719,9 @@
       <c r="F46" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="G46" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="C47" s="20" t="s">
@@ -6620,6 +6736,9 @@
       <c r="F47" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="G47" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="C48" s="20" t="s">
@@ -6634,16 +6753,19 @@
       <c r="F48" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="G48" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H48" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="1:8">
       <c r="B50" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="1:8">
       <c r="C51" s="20" t="s">
         <v>405</v>
       </c>
@@ -6656,11 +6778,14 @@
       <c r="F51" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="G51" s="2" t="s">
+        <v>447</v>
+      </c>
       <c r="H51" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="1:8">
       <c r="C52" s="20" t="s">
         <v>407</v>
       </c>
@@ -6673,16 +6798,19 @@
       <c r="F52" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="G52" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="H52" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="1:8">
       <c r="B54" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="1:8">
       <c r="C55" s="20" t="s">
         <v>410</v>
       </c>
@@ -6695,8 +6823,11 @@
       <c r="F55" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="G55" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="C56" s="20" t="s">
         <v>412</v>
       </c>
@@ -6709,10 +6840,164 @@
       <c r="F56" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="G56" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="10" customFormat="1" ht="18.75">
+      <c r="A58" s="8">
+        <v>42207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="C60" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="C61" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="C63" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="C65" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="C67" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="C68" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="C70" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="C71" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>443</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E21 E3:E19 E23:E39 E41 E49:E50 E53:E54 E57:E1048576">
+  <conditionalFormatting sqref="E21 E3:E19 E23:E39 E41 E49:E50 E53:E54 E57 E59:E1048576">
     <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -6933,7 +7218,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/qa/05.工作计划/2015年工作计划.xlsx
+++ b/qa/05.工作计划/2015年工作计划.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="474">
   <si>
     <t>人员安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1813,6 +1813,110 @@
   </si>
   <si>
     <t>延期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招-物理、法术大招修改功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-对局切换表现功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-对局掉落表现功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-剧情动画调用任务对话功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物-宠物列表、宠物详情界面功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物技能升级测试用例设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局-照妖镜&amp;弱点相关功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招bug复查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局bug复查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物bug复查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神、ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能三方&amp;文档跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1提交，D3三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2160,7 +2264,27 @@
     <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5959,102 +6083,102 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E11:E12 C15 E4 E17 E14 C6 C13 E31:E48 E50:E57 E59:E61 C64:C67 E63:E67 E70:E1048576">
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 E3:E29">
-    <cfRule type="cellIs" dxfId="59" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="58" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="57" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="cellIs" dxfId="53" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="50" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C60">
-    <cfRule type="cellIs" dxfId="46" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D57">
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D69">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6075,11 +6199,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -6867,6 +6991,9 @@
       <c r="F60" s="2" t="s">
         <v>441</v>
       </c>
+      <c r="G60" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="C61" s="6" t="s">
@@ -6881,6 +7008,9 @@
       <c r="F61" s="2" t="s">
         <v>442</v>
       </c>
+      <c r="G61" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="C62" s="6" t="s">
@@ -6895,6 +7025,9 @@
       <c r="F62" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="C63" s="6" t="s">
@@ -6909,13 +7042,16 @@
       <c r="F63" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="G63" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="B64" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="1:7">
       <c r="C65" s="6" t="s">
         <v>428</v>
       </c>
@@ -6928,13 +7064,16 @@
       <c r="F65" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="G65" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="B66" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="1:7">
       <c r="C67" s="6" t="s">
         <v>430</v>
       </c>
@@ -6947,8 +7086,11 @@
       <c r="F67" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="G67" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="C68" s="6" t="s">
         <v>431</v>
       </c>
@@ -6961,13 +7103,16 @@
       <c r="F68" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="G68" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="B69" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="1:7">
       <c r="C70" s="6" t="s">
         <v>433</v>
       </c>
@@ -6980,8 +7125,11 @@
       <c r="F70" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="G70" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="C71" s="6" t="s">
         <v>434</v>
       </c>
@@ -6994,221 +7142,392 @@
       <c r="F71" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="G71" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="10" customFormat="1" ht="18.75">
+      <c r="A73" s="8">
+        <v>42214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="C75" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="C76" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="C77" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="C78" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="C79" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="C80" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="C81" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="C83" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="C84" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="C85" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="C87" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>469</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E21 E3:E19 E23:E39 E41 E49:E50 E53:E54 E57 E59:E1048576">
-    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
+  <conditionalFormatting sqref="E21 E3:E19 E23:E39 E41 E49:E50 E53:E54 E57 E59:E72 E74:E1048576">
+    <cfRule type="cellIs" dxfId="44" priority="65" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="60" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C44">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C44">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
